--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_5.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999725044726954</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992364608629379</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999157884070683</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999997577309695</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999788854453837</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G2" t="n">
-        <v>2.566586782471431e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007127302689528723</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I2" t="n">
-        <v>4.99268867794447e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>3.494921126915197e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.671090395317995e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002948229606134178</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00506614921066428</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000131978531062</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O2" t="n">
-        <v>0.005281825670936871</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P2" t="n">
-        <v>79.14069709795096</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q2" t="n">
-        <v>114.4880960191288</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_1</t>
+          <t>model_10_5_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999743439009084</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992231949063271</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999902223674544</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999973770295922</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999755926425472</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G3" t="n">
-        <v>2.394884232932775e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007251134571409348</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I3" t="n">
-        <v>5.796906768779081e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J3" t="n">
-        <v>3.783840912109294e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>3.087645429995005e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002899201303118363</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004893755442329311</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00012314927564</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005102092742979585</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P3" t="n">
-        <v>79.27918114451134</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.6265800656892</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_2</t>
+          <t>model_10_5_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999757099388257</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9992104861135499</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998896455046637</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999971685882351</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999725263666137</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G4" t="n">
-        <v>2.267370589578628e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007369765573468229</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I4" t="n">
-        <v>6.542634098752116e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>4.08453394802614e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>3.475543746777365e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000284917574254102</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.004761691495234259</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000116592293637</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004964406560246639</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P4" t="n">
-        <v>79.38860927088479</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q4" t="n">
-        <v>114.7360081920626</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_3</t>
+          <t>model_10_5_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999765370888694</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991985808750796</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998769003005658</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999968531559382</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999693599469198</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G5" t="n">
-        <v>2.190159763768163e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007480895748792516</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I5" t="n">
-        <v>7.298264457745281e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J5" t="n">
-        <v>4.539569821064788e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>3.876110719925879e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002813408937325048</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004679914276744995</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000112621973427</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004879147916264107</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P5" t="n">
-        <v>79.45790194462067</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q5" t="n">
-        <v>114.8053008657985</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_4</t>
+          <t>model_10_5_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.999977026491445</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991874445895548</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998645128805079</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999965637625006</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999662922129081</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G6" t="n">
-        <v>2.14447618155981e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000758484808590269</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I6" t="n">
-        <v>8.032682721534386e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J6" t="n">
-        <v>4.957042593968098e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>4.264193490465598e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0002770876803594558</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004630848930336435</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000110272841064</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004827993756479665</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P6" t="n">
-        <v>79.50006029362804</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q6" t="n">
-        <v>114.8474592148059</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_5</t>
+          <t>model_10_5_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999771745034981</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991771079648016</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9998520194990312</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999962536440045</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999631878323036</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G7" t="n">
-        <v>2.130659906106263e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007681335940719694</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I7" t="n">
-        <v>8.773383165218564e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J7" t="n">
-        <v>5.404412891949059e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>4.656912227206735e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002755259487675381</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004615907176391509</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000109562383209</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004812415901135609</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P7" t="n">
-        <v>79.51298743631662</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.8603863574944</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_6</t>
+          <t>model_10_5_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999771260334905</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991674955874333</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998402892107546</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999959035287531</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999960239461659</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G8" t="n">
-        <v>2.135184368554634e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007771063264106942</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I8" t="n">
-        <v>9.468841776419899e-05</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>5.909481652185094e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>5.029894970819204e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000275627864916248</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004620805523450034</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000109795039245</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004817522780969392</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P8" t="n">
-        <v>79.50874493344627</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.8561438546241</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_7</t>
+          <t>model_10_5_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999768888146533</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991586290347486</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9998290162763532</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999955191007494</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999573786982352</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G9" t="n">
-        <v>2.157327705738612e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007853828641451344</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001013718505308529</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J9" t="n">
-        <v>6.464049253857568e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>5.391794989235523e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002760734258279482</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00464470419482082</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000110933689664</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004842438868257502</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P9" t="n">
-        <v>79.48811036494791</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.8355092861257</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_8</t>
+          <t>model_10_5_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999976467254722</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991504618640278</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998175356927966</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999951789170874</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999544945033096</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G10" t="n">
-        <v>2.19667847488628e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007930065595157072</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001081783931390431</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>6.954790916035964e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>5.756659202753951e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002763214022836815</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004686873664700469</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000112957177334</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004886403579772764</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P10" t="n">
-        <v>79.45195805924219</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.79935698042</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_9</t>
+          <t>model_10_5_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999975973665958</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991429622658091</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998068518177159</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999948125904501</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999517820943578</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G11" t="n">
-        <v>2.242752819400658e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008000071052585155</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001145125877903198</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J11" t="n">
-        <v>7.483245874323764e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>6.099791683232177e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0002765927238864966</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004735771129816831</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000115326403402</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004937382711210837</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P11" t="n">
-        <v>79.41044283279219</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.75784175397</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_10</t>
+          <t>model_10_5_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999754161070845</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991361024630181</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9997966090392179</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999944893970465</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999491976402937</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G12" t="n">
-        <v>2.294798492844458e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008064104300533879</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001205852676265912</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J12" t="n">
-        <v>7.949477753818743e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>6.426737269020498e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0002766046066426043</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004790405507725268</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000118002685994</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00499434298769559</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P12" t="n">
-        <v>79.36456085598951</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q12" t="n">
-        <v>114.7119597771673</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_11</t>
+          <t>model_10_5_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999747645826724</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991298291689461</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9997865621345682</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999941289964116</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999466378707712</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G13" t="n">
-        <v>2.355615436853355e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008122662747037921</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001265418188977821</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>8.469383987962385e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>6.750560144287223e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002770678424467718</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.004853468282427892</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000121130003172</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005060090475275244</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P13" t="n">
-        <v>79.31224687929185</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q13" t="n">
-        <v>114.6596458004697</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999741423113043</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991241332259798</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9997773929075644</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999938430481551</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999443262168921</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G14" t="n">
-        <v>2.413701737609835e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008175831874398949</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001319780176744231</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J14" t="n">
-        <v>8.881886816285694e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>7.042995224535437e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000277099859859786</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004912943860466793</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000124116905739</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.00512209805180268</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P14" t="n">
-        <v>79.26352781037075</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q14" t="n">
-        <v>114.6109267315486</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_13</t>
+          <t>model_10_5_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999735179669257</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991189257919304</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9997688229669309</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999935742516705</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999421647725504</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G15" t="n">
-        <v>2.471981544795726e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008224440985450751</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001370589149810528</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>9.269646865980758e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>7.316428092351681e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002769935271284484</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004971902598398048</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000127113758757</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.005183566785269083</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P15" t="n">
-        <v>79.21581078220035</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q15" t="n">
-        <v>114.5632097033782</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_14</t>
+          <t>model_10_5_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999728846432868</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991141629900735</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9997607526165279</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999933017800476</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999401183012168</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G16" t="n">
-        <v>2.531099526519152e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008268899650156227</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001418436180939434</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J16" t="n">
-        <v>9.66270859129329e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>7.575316334261834e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002770957837678905</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005031003405404484</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000130153712223</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.005245183635985319</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P16" t="n">
-        <v>79.16854332235587</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q16" t="n">
-        <v>114.5159422435337</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_15</t>
+          <t>model_10_5_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999722405673835</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991098249210199</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9997529108576587</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999930703586963</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999381488010478</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G17" t="n">
-        <v>2.591221184915896e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008309393620579346</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001464927951677965</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J17" t="n">
-        <v>9.996552074296108e-06</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>7.824467362104629e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002771638819869141</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005090403898430748</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000133245276559</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005307112930975682</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P17" t="n">
-        <v>79.12159240082488</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.4689913220027</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_16</t>
+          <t>model_10_5_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999716451362728</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991059095459447</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9997458418979395</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999928696724405</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999363779142596</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G18" t="n">
-        <v>2.646802065463489e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008345941928255008</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001506837995089468</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J18" t="n">
-        <v>1.028605776723783e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>8.04849286380923e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002769503153535661</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00514470802423567</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000136103345891</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005363728895841158</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P18" t="n">
-        <v>79.0791466429045</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q18" t="n">
-        <v>114.4265455640823</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_17</t>
+          <t>model_10_5_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999710963283431</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.99910235018057</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9997394899825113</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999926884624241</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999347861564356</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G19" t="n">
-        <v>2.698030876717158e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008379167041647157</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001544496867387093</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J19" t="n">
-        <v>1.054746745434246e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>8.249857709652586e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002766881907223061</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005194257287348364</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000138737623953</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O19" t="n">
-        <v>0.005415387573665674</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P19" t="n">
-        <v>79.04080652590345</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q19" t="n">
-        <v>114.3882054470813</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_18</t>
+          <t>model_10_5_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999705497911179</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.999099107575756</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999733404417763</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999925130505932</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999332601182266</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G20" t="n">
-        <v>2.74904772766599e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008409435334247014</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001580576615031534</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J20" t="n">
-        <v>1.080051280332529e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>8.442908715323931e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002765496694703833</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M20" t="n">
-        <v>0.005243136206189946</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000141361002634</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005466347369275652</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P20" t="n">
-        <v>79.00334178821907</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q20" t="n">
-        <v>114.3507407093969</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_19</t>
+          <t>model_10_5_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999700331853745</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990961742072838</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9997278046492181</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999923463951473</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999318529087423</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G21" t="n">
-        <v>2.797270606183456e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.000843681704133453</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001613776201977225</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J21" t="n">
-        <v>1.104092637896185e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K21" t="n">
-        <v>8.620927328834215e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002764434432171252</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005288922958583776</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000143840710203</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O21" t="n">
-        <v>0.005514083358510532</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P21" t="n">
-        <v>78.96856261341078</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q21" t="n">
-        <v>114.3159615345886</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_20</t>
+          <t>model_10_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999695844896657</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990935193014461</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997229539876334</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999922146339144</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999306411322686</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G22" t="n">
-        <v>2.839154381055289e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008461599421960839</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001642534526491375</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J22" t="n">
-        <v>1.123100231046127e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K22" t="n">
-        <v>8.774222747979938e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002761523442654635</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.005328371590885239</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000145994449605</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O22" t="n">
-        <v>0.005555211400758995</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P22" t="n">
-        <v>78.93883842056786</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q22" t="n">
-        <v>114.2862373417457</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_21</t>
+          <t>model_10_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999691491998823</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990911076220572</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997183684237044</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999920847226663</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999294925306524</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G23" t="n">
-        <v>2.879786771624805e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008484111390450866</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001669721155212911</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J23" t="n">
-        <v>1.141840949359691e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K23" t="n">
-        <v>8.919526250744401e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002759343507870974</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005366364478513182</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000148083840565</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.005594821724269378</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P23" t="n">
-        <v>78.91041842238714</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q23" t="n">
-        <v>114.257817343565</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_22</t>
+          <t>model_10_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999687439226329</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990889402706038</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999714139935159</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999919767482479</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999928440109814</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G24" t="n">
-        <v>2.917617623892234e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008504342664911459</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001694790775855634</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J24" t="n">
-        <v>1.157417107617144e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K24" t="n">
-        <v>9.052662433086743e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002756861256033059</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00540149759223517</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000150029171362</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005631450527378084</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P24" t="n">
-        <v>78.88431612786356</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q24" t="n">
-        <v>114.2317150490414</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_5_23</t>
+          <t>model_10_5_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999683922738345</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990869680164759</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997105093103696</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999918781971702</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999275331586491</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G25" t="n">
-        <v>2.950442495663851e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008522752791476407</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001716315816112832</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J25" t="n">
-        <v>1.171633874933552e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K25" t="n">
-        <v>9.167396018030935e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002754102145608246</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005431797580602439</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000151717085594</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00566304044897977</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P25" t="n">
-        <v>78.86194061467407</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q25" t="n">
-        <v>114.2093395358519</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999680571289316</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990851908160397</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997070990843309</v>
+        <v>0.9999999999999559</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999917871747417</v>
+        <v>0.9999999999999102</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999266821458868</v>
+        <v>0.9999999999999467</v>
       </c>
       <c r="G26" t="n">
-        <v>2.981726801239012e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008539342177446929</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001736534168883618</v>
+        <v>4.173359034451579e-14</v>
       </c>
       <c r="J26" t="n">
-        <v>1.184764575455521e-05</v>
+        <v>2.291200630315494e-14</v>
       </c>
       <c r="K26" t="n">
-        <v>9.275053132145851e-05</v>
+        <v>3.232279832383536e-14</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002751791472476297</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005460519024084626</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000153325781129</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005692984623772578</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P26" t="n">
-        <v>78.84084573754808</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q26" t="n">
-        <v>114.1882446587259</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
   </sheetData>
